--- a/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
+++ b/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygreencar/Desktop/CyDER_vgi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygreencar/git/CyDER/cosimulation/static/demo/1_ev_impact/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>feeder_name</t>
   </si>
@@ -41,25 +41,34 @@
     <t>timestep</t>
   </si>
   <si>
-    <t>ev_occupancy</t>
-  </si>
-  <si>
     <t>pv_forecast</t>
   </si>
   <si>
-    <t>occupancy_at_node.xlsx</t>
-  </si>
-  <si>
-    <t>vehicle_parameters</t>
-  </si>
-  <si>
-    <t>vehicle_parameters.xlsx</t>
-  </si>
-  <si>
-    <t>load_itineraries</t>
-  </si>
-  <si>
     <t>BU0001</t>
+  </si>
+  <si>
+    <t>ev_forecast</t>
+  </si>
+  <si>
+    <t>transmission_model</t>
+  </si>
+  <si>
+    <t>IEEE_14_bus</t>
+  </si>
+  <si>
+    <t>bus_id</t>
+  </si>
+  <si>
+    <t>add_load</t>
+  </si>
+  <si>
+    <t>add_pv</t>
+  </si>
+  <si>
+    <t>load_forecast</t>
+  </si>
+  <si>
+    <t>static/demo/1_ev_impact/ev_forecast.xlsx</t>
   </si>
 </sst>
 </file>
@@ -384,71 +393,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>42903.25</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>42903.875</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1800</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="b">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
+++ b/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygreencar/git/CyDER/cosimulation/static/demo/1_ev_impact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonathan\Desktop\CyDER\cosimulation\static\demo\1_ev_impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5920" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-5925" yWindow="-21135" windowWidth="38400" windowHeight="21135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -44,9 +41,6 @@
     <t>pv_forecast</t>
   </si>
   <si>
-    <t>BU0001</t>
-  </si>
-  <si>
     <t>ev_forecast</t>
   </si>
   <si>
@@ -69,6 +63,9 @@
   </si>
   <si>
     <t>static/demo/1_ev_impact/ev_forecast.xlsx</t>
+  </si>
+  <si>
+    <t>BU0001.sxst</t>
   </si>
 </sst>
 </file>
@@ -125,6 +122,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -396,32 +396,32 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -433,27 +433,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -468,7 +468,7 @@
         <v>1800</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>

--- a/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
+++ b/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
@@ -89,12 +89,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -404,9 +411,9 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
@@ -449,7 +456,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">

--- a/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
+++ b/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -478,10 +478,10 @@
         <v>12</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>

--- a/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
+++ b/cosimulation/static/demo/1_ev_impact/cyder_inputs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>feeder_name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>BU0001.sxst</t>
+  </si>
+  <si>
+    <t>static/demo/1_ev_impact/pv_forecast.xlsx</t>
+  </si>
+  <si>
+    <t>static/demo/1_ev_impact/load_forecast.xlsx</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -414,8 +420,8 @@
     <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -463,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>42903.25</v>
@@ -477,11 +483,11 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
